--- a/DC_Lab4.xlsx
+++ b/DC_Lab4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\dc\dc-lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157F5FE-7BA6-48C5-9640-1FA353A0C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8A034E-6D84-44A4-AA49-ACD2D29F48C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Test Number</t>
   </si>
@@ -67,6 +68,36 @@
   </si>
   <si>
     <t>τ</t>
+  </si>
+  <si>
+    <t>Data Amount</t>
+  </si>
+  <si>
+    <t>Serial Bubble Sorting</t>
+  </si>
+  <si>
+    <t>Serial Standard Sorting</t>
+  </si>
+  <si>
+    <t>Parallel Algorithm</t>
+  </si>
+  <si>
+    <t>The number of Processors</t>
+  </si>
+  <si>
+    <t>2 processors</t>
+  </si>
+  <si>
+    <t>4 processors</t>
+  </si>
+  <si>
+    <t>8 processors</t>
+  </si>
+  <si>
+    <t>Speed Up 1</t>
+  </si>
+  <si>
+    <t>Speed Up 2</t>
   </si>
 </sst>
 </file>
@@ -154,12 +185,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -171,7 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,12 +653,12 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -719,7 +757,7 @@
       <c r="C15" s="1">
         <v>0.66490000000000005</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.66490000000000005</v>
       </c>
@@ -804,4 +842,499 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C8B39D-D1B7-4FA8-AEA8-3144CEC3252C}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.8E-5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.0900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.13239000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.039E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.8409E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.9559999999999995E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.653E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0990000000000002E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.120528</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.2222E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.650107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0829999999999998E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.30258299999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.6874999999999999E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.4036999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.1382150000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.2750000000000002E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.66217499999999996</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.13847599999999999</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.5088999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.0625960000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.5009999999999998E-3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.072314</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.24438399999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>7.1094000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f>C4/E4</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>D4/E4</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C4/F4</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D4/F4</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <f>C4/G4</f>
+        <v>9.1743119266055034E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <f>D4/G4</f>
+        <v>9.1743119266055034E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B21" si="0">C5/E5</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C21" si="1">D5/E5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D21" si="2">C5/F5</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E21" si="3">D5/F5</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:F20" si="4">C5/G5</f>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G21" si="5">D5/G5</f>
+        <v>8.5714285714285729E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6601429124573199</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6572917033334505E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>16.640271493212673</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13059326294620413</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>36.241445387352861</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28442376129208868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5165604672773139</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7415040488517192E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>22.731623931623933</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1760683760683758E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>54.401898216331212</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17173948617247586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4534028679734154</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0188939894177795E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>21.464806504065042</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0104065040650408E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>68.648625036402208</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12826059824437325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7392532185600489</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4559972816853554E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>22.66251913689015</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0871775614546928E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>69.600456874182186</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4812481980083838E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7211880102283477</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1300272121785218E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>20.715742438130157</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2509656933350792E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f>C10/G10</f>
+        <v>71.209891130053165</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="5"/>
+        <v>7.7376431203758395E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>